--- a/src/main/resources/ImportFile.xlsx
+++ b/src/main/resources/ImportFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -85,6 +85,30 @@
   </si>
   <si>
     <t>Trần Văn 6</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>22/11/2000</t>
+  </si>
+  <si>
+    <t>14/2/2002</t>
+  </si>
+  <si>
+    <t>nữ</t>
+  </si>
+  <si>
+    <t>14/2/2015</t>
   </si>
 </sst>
 </file>
@@ -414,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +457,7 @@
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +485,11 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -488,15 +515,18 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -508,24 +538,27 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
+      <c r="J3">
+        <v>250</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -537,19 +570,22 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
+      <c r="J4">
+        <v>350</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -566,19 +602,22 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
+      <c r="J5">
+        <v>250</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -598,7 +637,7 @@
         <v>1234</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -606,8 +645,11 @@
       <c r="I6" t="s">
         <v>15</v>
       </c>
+      <c r="J6">
+        <v>250</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -630,10 +672,13 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
+      </c>
+      <c r="J7">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
